--- a/biology/Botanique/Bangiales/Bangiales.xlsx
+++ b/biology/Botanique/Bangiales/Bangiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bangiales sont un ordre d'algue rouges de la sous-classe des Bangiophycidae, dans la classe des Bangiophyceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (17 mai 2012)[1] &amp; Catalogue of Life                                   (17 mai 2012)[2] &amp; ITIS      (17 mai 2012)[3] &amp; World Register of Marine Species                               (17 mai 2012)[4] &amp; NCBI  (17 mai 2012)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (17 mai 2012) &amp; Catalogue of Life                                   (17 mai 2012) &amp; ITIS      (17 mai 2012) &amp; World Register of Marine Species                               (17 mai 2012) &amp; NCBI  (17 mai 2012) :
 famille des Bangiaceae Engler</t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (18 mai 2012)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (18 mai 2012) :
 famille des Bangiaceae Engler
 genre Bangia Lyngbye
 genre Bangiomorpha N.J.Butterfield
@@ -559,7 +575,7 @@
 genre Pseudobangia K.M.Müller &amp; R.G.Sheath
 genre Pyropia J.Agardh
 genre Wildemania De Toni
-Selon Catalogue of Life                                   (18 mai 2012)[7] :
+Selon Catalogue of Life                                   (18 mai 2012) :
 famille des Bangiaceae
 genre Aspalatia
 genre Bangia
@@ -570,13 +586,13 @@
 genre Porphyrella
 genre Wildemania
 genre Zachariasia
-Selon ITIS      (18 mai 2012)[8] :
+Selon ITIS      (18 mai 2012) :
 famille des Bangiaceae Engler
 genre Bangia Lyngbye, 1819
 genre Conchocelis Batters, 1892
 genre Porphyra C. A. Agardh
 genre Porphyrella Smith &amp; Hollenberg, 1943
-Selon NCBI  (18 mai 2012)[9] :
+Selon NCBI  (18 mai 2012) :
 famille des Bangiaceae
 genre Bangia
 genre Boreophyllum
